--- a/Projects/CCRU/Data/with weights/Canteen PoS 2018.xlsx
+++ b/Projects/CCRU/Data/with weights/Canteen PoS 2018.xlsx
@@ -15,6 +15,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AO$41</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AO$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AO$41</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -811,7 +812,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="83">
@@ -1232,15 +1233,15 @@
   <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD20" activeCellId="0" sqref="AD20"/>
+      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="7" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1441,7 +1442,7 @@
       <c r="AN2" s="21"/>
       <c r="AO2" s="12"/>
     </row>
-    <row r="3" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="n">
         <v>2</v>
       </c>
